--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 10 (10, 5)/MDD 11 (2,)/ANN_128nodes_Uniform0.05Virtual_Control(10, 5)_MDD(2,)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -435,10 +435,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9839199525014564</v>
+        <v>0.9999991443548086</v>
       </c>
       <c r="E2">
-        <v>0.9839199525014564</v>
+        <v>0.9999991443548086</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9951119506933305</v>
+        <v>0.9355868099533976</v>
       </c>
       <c r="E3">
-        <v>0.9951119506933305</v>
+        <v>0.9355868099533976</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -463,13 +463,13 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.9999999999999958</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4.218847493575595E-15</v>
       </c>
       <c r="F4">
-        <v>3.150379180908203</v>
+        <v>5.571281909942627</v>
       </c>
       <c r="G4">
         <v>0.3333333333333333</v>
